--- a/linux/兼职面试记录表.xlsx
+++ b/linux/兼职面试记录表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>微信名称</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>幸福😁</t>
+  </si>
+  <si>
+    <t>flutter</t>
   </si>
   <si>
     <t>加纳-Zip Loan-07</t>
@@ -1350,7 +1353,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="17.6"/>
@@ -1542,12 +1545,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="6">
         <v>45051</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5">
+        <v>87</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1599,7 @@
   <sheetData>
     <row r="1" ht="183" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1">
         <v>3.27</v>
@@ -1584,12 +1608,12 @@
         <v>1500</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="31" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1">
         <v>3.27</v>
@@ -1598,12 +1622,12 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="31" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1">
         <v>4.24</v>
@@ -1612,12 +1636,12 @@
         <v>2075</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>4.6</v>
@@ -1626,12 +1650,12 @@
         <v>150</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>4.15</v>
@@ -1640,12 +1664,12 @@
         <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>4.15</v>
@@ -1654,12 +1678,12 @@
         <v>75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>4.24</v>
